--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_BEFTA_RM_CT_JURISDICTION1.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_BEFTA_RM_CT_JURISDICTION1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilapatel/Documents/CCD-5322/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilapatel/Documents/Work/repos/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54899DFA-0FF4-094C-AFEC-253FC9A70867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744C4651-071E-1541-9248-D533ED461902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32580" yWindow="600" windowWidth="30220" windowHeight="19860" tabRatio="500" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30220" yWindow="760" windowWidth="30220" windowHeight="19860" tabRatio="500" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
   <externalReferences>
     <externalReference r:id="rId23"/>
   </externalReferences>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="263">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -863,6 +863,9 @@
   </si>
   <si>
     <t>BEFTA_SOLICITOR_1</t>
+  </si>
+  <si>
+    <t>idam:caseworker-befta_jurisdiction_1</t>
   </si>
 </sst>
 </file>
@@ -5566,8 +5569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5689,15 +5692,26 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
+    <row r="6" spans="1:8" s="102" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="100">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="100"/>
+      <c r="C6" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="101" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="101" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="77"/>
@@ -7749,7 +7763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DACD67B-2A23-0B48-AF05-9E28FF9FFA66}">
   <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_BEFTA_RM_CT_JURISDICTION1.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/CCD_BEFTA_RM_CT_JURISDICTION1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilapatel/Documents/Work/repos/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744C4651-071E-1541-9248-D533ED461902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C95EAF-552D-4F42-904B-A14C27A2F94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30220" yWindow="760" windowWidth="30220" windowHeight="19860" tabRatio="500" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19860" tabRatio="500" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="267">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -866,6 +866,18 @@
   </si>
   <si>
     <t>idam:caseworker-befta_jurisdiction_1</t>
+  </si>
+  <si>
+    <t>BEFTA_CASETYPE_NO_READ</t>
+  </si>
+  <si>
+    <t>BEFTA Case Type No Read</t>
+  </si>
+  <si>
+    <t>Create a case of type BEFTA_CASETYPE_NO_READ</t>
+  </si>
+  <si>
+    <t>CU</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1309,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1506,6 +1518,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2659,10 +2672,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A10" activeCellId="1" sqref="A4:XFD4 A10"/>
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2766,8 +2779,8 @@
         <v>43466</v>
       </c>
       <c r="B6" s="29"/>
-      <c r="C6" t="s">
-        <v>28</v>
+      <c r="C6" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>52</v>
@@ -2784,8 +2797,8 @@
         <v>43466</v>
       </c>
       <c r="B7" s="29"/>
-      <c r="C7" t="s">
-        <v>28</v>
+      <c r="C7" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>69</v>
@@ -2797,13 +2810,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
         <v>43466</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>52</v>
@@ -2815,34 +2828,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="30">
+        <v>43466</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30">
+        <v>43466</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>45266</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E11" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F11" s="29">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A9" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A11" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F9" xr:uid="{00000000-0002-0000-0900-000001000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F11" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B8" xr:uid="{00000000-0002-0000-0900-000002000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B10" xr:uid="{00000000-0002-0000-0900-000002000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2859,7 +2908,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D4:D5 D8</xm:sqref>
+          <xm:sqref>D10 D4:D5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field id" xr:uid="{00000000-0002-0000-0900-000004000000}">
           <x14:formula1>
@@ -2868,7 +2917,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D6:D7</xm:sqref>
+          <xm:sqref>D8:D9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2878,10 +2927,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" activeCellId="1" sqref="A4:XFD4 C7"/>
+      <selection activeCell="C5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2969,8 +3018,8 @@
         <v>43466</v>
       </c>
       <c r="B5" s="28"/>
-      <c r="C5" t="s">
-        <v>28</v>
+      <c r="C5" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
@@ -2982,13 +3031,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>43466</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>52</v>
@@ -3000,16 +3049,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
-        <v>45266</v>
-      </c>
-      <c r="B7"/>
+        <v>43466</v>
+      </c>
+      <c r="B7" s="28"/>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>167</v>
@@ -3018,18 +3067,40 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>45266</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="29">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A7" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A8" xr:uid="{48302F8C-B1C8-634D-8CD2-3F8EA0473CB8}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F7" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F8" xr:uid="{C50FC5D6-FD94-DB45-A58E-2193320EB28D}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B6" xr:uid="{00000000-0002-0000-0A00-000002000000}">
-      <formula1>IF((DATEDIF(A7,B7,"d")&gt;0),B7)</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B5" xr:uid="{053C509E-DFA2-AA45-BEDC-6623B6D4A604}">
+      <formula1>IF((DATEDIF(A8,B8,"d")&gt;0),B8)</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B6:B7" xr:uid="{80A37448-C5ED-994D-A694-7EF243CBBFEE}">
+      <formula1>IF((DATEDIF(A9,B9,"d")&gt;0),B9)</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -3038,23 +3109,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type" xr:uid="{00000000-0002-0000-0A00-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type" xr:uid="{C058BD8F-1C8B-5F41-A742-7A1871EB4EE3}">
           <x14:formula1>
             <xm:f>CaseField!$D$4:$D$9</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D4 D6</xm:sqref>
+          <xm:sqref>D7 D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type" xr:uid="{00000000-0002-0000-0A00-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type" xr:uid="{D1C4CF65-87B0-094A-85BB-6A0F47F2BA85}">
           <x14:formula1>
             <xm:f>'/users/semenu/library/containers/com.microsoft.excel/data/documents/users\sivakanukollu\github\moj\ccd-data-store-api\src\aat\resources\[ccd_befta_jurisdiction4.xlsx]casefield'!#REF!</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D5</xm:sqref>
+          <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3064,10 +3135,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D28" activeCellId="1" sqref="A4:XFD4 D28"/>
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3171,8 +3242,8 @@
         <v>43466</v>
       </c>
       <c r="B6" s="29"/>
-      <c r="C6" t="s">
-        <v>28</v>
+      <c r="C6" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>52</v>
@@ -3189,8 +3260,8 @@
         <v>43466</v>
       </c>
       <c r="B7" s="29"/>
-      <c r="C7" t="s">
-        <v>28</v>
+      <c r="C7" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>69</v>
@@ -3202,13 +3273,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
         <v>43466</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>52</v>
@@ -3220,34 +3291,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="30">
+        <v>43466</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30">
+        <v>43466</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>45266</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E11" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F11" s="29">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A9" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A11" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F9" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F11" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B8" xr:uid="{00000000-0002-0000-0B00-000002000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B10" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3264,7 +3371,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D4:D5 D8</xm:sqref>
+          <xm:sqref>D10 D4:D5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field id" xr:uid="{00000000-0002-0000-0B00-000004000000}">
           <x14:formula1>
@@ -3273,7 +3380,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D6:D7</xm:sqref>
+          <xm:sqref>D8:D9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3283,10 +3390,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E34" activeCellId="1" sqref="A4:XFD4 E34"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3537,8 +3644,8 @@
         <v>43466</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" t="s">
-        <v>28</v>
+      <c r="C10" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D10" t="s">
         <v>185</v>
@@ -3564,8 +3671,8 @@
         <v>43466</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" t="s">
-        <v>28</v>
+      <c r="C11" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D11" t="s">
         <v>185</v>
@@ -3591,8 +3698,8 @@
         <v>43466</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" t="s">
-        <v>28</v>
+      <c r="C12" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D12" t="s">
         <v>185</v>
@@ -3618,8 +3725,8 @@
         <v>43466</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" t="s">
-        <v>28</v>
+      <c r="C13" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D13" t="s">
         <v>185</v>
@@ -3645,8 +3752,8 @@
         <v>43466</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" t="s">
-        <v>28</v>
+      <c r="C14" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D14" t="s">
         <v>185</v>
@@ -3672,8 +3779,8 @@
         <v>43466</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" t="s">
-        <v>28</v>
+      <c r="C15" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D15" t="s">
         <v>185</v>
@@ -3700,7 +3807,7 @@
       </c>
       <c r="B16" s="8"/>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>185</v>
@@ -3721,101 +3828,221 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
-        <v>45266</v>
+        <v>43466</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
         <v>185</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>187</v>
       </c>
       <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="H17" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
-        <v>45266</v>
+        <v>43466</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>185</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>82</v>
+        <v>186</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>187</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
+        <v>45266</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <v>45266</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
         <v>81</v>
       </c>
-      <c r="I18">
+      <c r="I24">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="29"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="29"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="29"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="29"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="29"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="29"/>
-      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
@@ -3859,18 +4086,59 @@
       <c r="F30" s="29"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="29"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="29"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="29"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="29"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="29"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="29"/>
+      <c r="H36" s="10"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A30" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A36" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G30 I4:I30" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="I4:I36 G4:G36" xr:uid="{00000000-0002-0000-0C00-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B30" xr:uid="{00000000-0002-0000-0C00-000002000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B36" xr:uid="{00000000-0002-0000-0C00-000002000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3964,7 +4232,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C19" activeCellId="1" sqref="A4:XFD4 C19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4055,56 +4323,70 @@
         <v>43466</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" t="s">
-        <v>28</v>
+      <c r="C6" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D6" t="s">
         <v>204</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="112" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="43">
         <v>43466</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>202</v>
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>204</v>
       </c>
       <c r="E7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+      <c r="A8" s="43">
+        <v>43466</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
         <v>45266</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>204</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A8" xr:uid="{00000000-0002-0000-0E00-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A9" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B8" xr:uid="{00000000-0002-0000-0E00-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B9" xr:uid="{00000000-0002-0000-0E00-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4116,10 +4398,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" activeCellId="1" sqref="A4:XFD4 D14"/>
+      <selection activeCell="F10" sqref="F10:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4298,14 +4580,14 @@
         <v>43466</v>
       </c>
       <c r="B10" s="49"/>
-      <c r="C10" t="s">
-        <v>28</v>
+      <c r="C10" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>95</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F10" s="56" t="s">
         <v>203</v>
@@ -4316,14 +4598,14 @@
         <v>43466</v>
       </c>
       <c r="B11" s="49"/>
-      <c r="C11" t="s">
-        <v>28</v>
+      <c r="C11" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>97</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F11" s="56" t="s">
         <v>203</v>
@@ -4334,80 +4616,188 @@
         <v>43466</v>
       </c>
       <c r="B12" s="49"/>
-      <c r="C12" t="s">
-        <v>28</v>
+      <c r="C12" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>99</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F12" s="56" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="54">
         <v>43466</v>
       </c>
       <c r="B13" s="49"/>
-      <c r="C13" t="s">
-        <v>31</v>
+      <c r="C13" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="54">
+        <v>43466</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="112" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="54">
+        <v>43466</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="112" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="54">
+        <v>43466</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="54">
+        <v>43466</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="54">
+        <v>43466</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="54">
+        <v>43466</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
         <v>45266</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E20" t="s">
         <v>204</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
         <v>45266</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E21" t="s">
         <v>204</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>201</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A14:A15" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A20:A21" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B14:B15" xr:uid="{00000000-0002-0000-0F00-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B20:B21" xr:uid="{00000000-0002-0000-0F00-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4419,10 +4809,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" activeCellId="1" sqref="A4:XFD4 E19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4607,164 +4997,283 @@
       <c r="A11" s="30">
         <v>43466</v>
       </c>
-      <c r="C11" t="s">
-        <v>28</v>
+      <c r="C11" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30">
         <v>43466</v>
       </c>
-      <c r="C12" t="s">
-        <v>28</v>
+      <c r="C12" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E12" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>203</v>
+      <c r="F12" s="56" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30">
         <v>43466</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
+      <c r="C13" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>203</v>
+      <c r="F13" s="56" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30">
         <v>43466</v>
       </c>
-      <c r="C14" t="s">
-        <v>28</v>
+      <c r="C14" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E14" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>203</v>
+      <c r="F14" s="56" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30">
         <v>43466</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
+      <c r="C15" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>203</v>
+      <c r="F15" s="56" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30">
         <v>43466</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
+      <c r="C16" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E16" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>203</v>
+      <c r="F16" s="56" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30">
         <v>43466</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="112" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="30">
+        <v>43466</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="30">
+        <v>43466</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="30">
+        <v>43466</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="30">
+        <v>43466</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="30">
+        <v>43466</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="30">
+        <v>43466</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="30">
+        <v>43466</v>
+      </c>
+      <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E24" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
         <v>45266</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E25" t="s">
         <v>204</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
         <v>45266</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E26" t="s">
         <v>204</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>201</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A18:A19" xr:uid="{00000000-0002-0000-1000-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A25:A26" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B18:B19" xr:uid="{00000000-0002-0000-1000-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B25:B26" xr:uid="{00000000-0002-0000-1000-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4776,10 +5285,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A24" activeCellId="1" sqref="A4:XFD4 A24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5049,14 +5558,14 @@
       <c r="A16" s="30">
         <v>43466</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
+      <c r="C16" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D16" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>203</v>
@@ -5066,14 +5575,14 @@
       <c r="A17" s="30">
         <v>43466</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
+      <c r="C17" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D17" t="s">
         <v>57</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>203</v>
@@ -5083,14 +5592,14 @@
       <c r="A18" s="30">
         <v>43466</v>
       </c>
-      <c r="C18" t="s">
-        <v>28</v>
+      <c r="C18" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D18" t="s">
         <v>61</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>203</v>
@@ -5100,14 +5609,14 @@
       <c r="A19" s="30">
         <v>43466</v>
       </c>
-      <c r="C19" t="s">
-        <v>28</v>
+      <c r="C19" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>203</v>
@@ -5117,14 +5626,14 @@
       <c r="A20" s="30">
         <v>43466</v>
       </c>
-      <c r="C20" t="s">
-        <v>28</v>
+      <c r="C20" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>203</v>
@@ -5134,14 +5643,14 @@
       <c r="A21" s="30">
         <v>43466</v>
       </c>
-      <c r="C21" t="s">
-        <v>28</v>
+      <c r="C21" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>203</v>
@@ -5151,114 +5660,313 @@
       <c r="A22" s="30">
         <v>43466</v>
       </c>
-      <c r="C22" t="s">
-        <v>31</v>
+      <c r="C22" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D22" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="30">
+        <v>43466</v>
+      </c>
+      <c r="C23" s="112" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="30">
+        <v>43466</v>
+      </c>
+      <c r="C24" s="112" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="30">
+        <v>43466</v>
+      </c>
+      <c r="C25" s="112" t="s">
+        <v>263</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="30">
+        <v>43466</v>
+      </c>
+      <c r="C26" s="112" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="30">
+        <v>43466</v>
+      </c>
+      <c r="C27" s="112" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="30">
+        <v>43466</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="30">
+        <v>43466</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="30">
+        <v>43466</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="30">
+        <v>43466</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="30">
+        <v>43466</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="30">
+        <v>43466</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="30">
+        <v>43466</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F34" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8">
         <v>45266</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" t="s">
         <v>34</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D35" t="s">
         <v>77</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E35" t="s">
         <v>204</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F35" s="10" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="30"/>
-      <c r="D24" s="10"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="30"/>
-      <c r="D25" s="10"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="30"/>
-      <c r="D26" s="10"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="30"/>
-      <c r="D27" s="10"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="30"/>
-      <c r="D28" s="10"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="30"/>
-      <c r="D29" s="10"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="30"/>
-      <c r="D30" s="10"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="30"/>
-      <c r="D31" s="10"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="30"/>
-      <c r="D32" s="10"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="30"/>
-      <c r="D33" s="10"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="30"/>
-      <c r="D34" s="10"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="30"/>
-      <c r="D35" s="10"/>
-      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30"/>
       <c r="D36" s="10"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="30"/>
+      <c r="D37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="30"/>
+      <c r="D38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="30"/>
+      <c r="D39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="30"/>
+      <c r="D40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="30"/>
+      <c r="D41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="30"/>
+      <c r="D42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="30"/>
+      <c r="D43" s="10"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="30"/>
+      <c r="D44" s="10"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="30"/>
+      <c r="D45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="30"/>
+      <c r="D46" s="10"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="30"/>
+      <c r="D47" s="10"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="30"/>
+      <c r="D48" s="10"/>
+      <c r="F48" s="10"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A23" xr:uid="{00000000-0002-0000-1100-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A35" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B23" xr:uid="{00000000-0002-0000-1100-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B35" xr:uid="{00000000-0002-0000-1100-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5376,10 +6084,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5489,14 +6197,14 @@
         <v>43466</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
+      <c r="C5" s="112" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="112" t="s">
+        <v>264</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>30</v>
+        <v>265</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -5505,19 +6213,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>43466</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -5528,16 +6236,17 @@
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
-        <v>45266</v>
-      </c>
+        <v>43466</v>
+      </c>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -5546,16 +6255,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="10:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J25" s="16"/>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>45266</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="10:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J26" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A7" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A8" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B6" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B7" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5569,8 +6298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9382,10 +10111,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D18" activeCellId="1" sqref="A4:XFD4 D18"/>
+      <selection activeCell="A10" sqref="A10:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9657,8 +10386,8 @@
         <v>43466</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" t="s">
-        <v>28</v>
+      <c r="C10" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
@@ -9684,8 +10413,8 @@
         <v>43466</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" t="s">
-        <v>28</v>
+      <c r="C11" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D11" t="s">
         <v>57</v>
@@ -9711,8 +10440,8 @@
         <v>43466</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" t="s">
-        <v>28</v>
+      <c r="C12" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D12" t="s">
         <v>61</v>
@@ -9738,8 +10467,8 @@
         <v>43466</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" t="s">
-        <v>28</v>
+      <c r="C13" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>65</v>
@@ -9765,8 +10494,8 @@
         <v>43466</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" t="s">
-        <v>28</v>
+      <c r="C14" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>69</v>
@@ -9792,8 +10521,8 @@
         <v>43466</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" t="s">
-        <v>28</v>
+      <c r="C15" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>73</v>
@@ -9814,13 +10543,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>43466</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>52</v>
@@ -9841,24 +10570,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
-        <v>45266</v>
-      </c>
+        <v>43466</v>
+      </c>
+      <c r="B17" s="8"/>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
         <v>56</v>
@@ -9867,24 +10597,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
-        <v>45266</v>
-      </c>
+        <v>43466</v>
+      </c>
+      <c r="B18" s="8"/>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" t="s">
-        <v>83</v>
+        <v>63</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="I18" t="s">
         <v>56</v>
@@ -9893,19 +10624,173 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
+        <v>45266</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <v>45266</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A18" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A24" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B16" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B22" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10238,7 +11123,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" activeCellId="1" sqref="A4:XFD4 C20"/>
+      <selection activeCell="B7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10361,8 +11246,8 @@
         <v>43466</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" t="s">
-        <v>28</v>
+      <c r="C7" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>95</v>
@@ -10379,8 +11264,8 @@
         <v>43466</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" t="s">
-        <v>28</v>
+      <c r="C8" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>97</v>
@@ -10397,8 +11282,8 @@
         <v>43466</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" t="s">
-        <v>28</v>
+      <c r="C9" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>99</v>
@@ -10410,13 +11295,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>43466</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>95</v>
@@ -10430,57 +11315,108 @@
     </row>
     <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
-        <v>45266</v>
+        <v>43466</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
-        <v>45266</v>
+        <v>43466</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>45266</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D14" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
+        <v>45266</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G12">
+      <c r="G15">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A12" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A15" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G12" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G15" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B12" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B15" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10492,10 +11428,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q1048576"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" activeCellId="1" sqref="A4:XFD4 C24"/>
+      <selection activeCell="B10" sqref="A10:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10817,8 +11753,8 @@
         <v>43466</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" t="s">
-        <v>28</v>
+      <c r="C10" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>121</v>
@@ -10844,8 +11780,8 @@
         <v>43466</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" t="s">
-        <v>28</v>
+      <c r="C11" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>124</v>
@@ -10874,8 +11810,8 @@
         <v>43466</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" t="s">
-        <v>28</v>
+      <c r="C12" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>126</v>
@@ -10904,8 +11840,8 @@
         <v>43466</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" t="s">
-        <v>28</v>
+      <c r="C13" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>128</v>
@@ -10934,8 +11870,8 @@
         <v>43466</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" t="s">
-        <v>28</v>
+      <c r="C14" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>130</v>
@@ -10964,8 +11900,8 @@
         <v>43466</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" t="s">
-        <v>28</v>
+      <c r="C15" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>133</v>
@@ -10989,13 +11925,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>43466</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>121</v>
@@ -11013,84 +11949,256 @@
         <v>27</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
-        <v>45266</v>
-      </c>
+        <v>43466</v>
+      </c>
+      <c r="B17" s="8"/>
       <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>135</v>
+        <v>28</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>101</v>
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="P17" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
-        <v>45266</v>
-      </c>
+        <v>43466</v>
+      </c>
+      <c r="B18" s="8"/>
       <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>136</v>
+        <v>28</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" t="s">
-        <v>103</v>
+        <v>3</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="P18" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="P21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
+        <v>45266</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>101</v>
+      </c>
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <v>45266</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" t="s">
+        <v>103</v>
+      </c>
+      <c r="P24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A17:A18" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A23:A24" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G16" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G22" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B16" xr:uid="{00000000-0002-0000-0600-000002000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B22" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="A4:A16" xr:uid="{00000000-0002-0000-0600-000003000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="A4:A22" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11102,10 +12210,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="G25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K41" activeCellId="1" sqref="A4:XFD4 K41"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11879,8 +12987,8 @@
         <v>43466</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" t="s">
-        <v>28</v>
+      <c r="C22" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>121</v>
@@ -11915,8 +13023,8 @@
         <v>43466</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>28</v>
+      <c r="C23" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>121</v>
@@ -11951,8 +13059,8 @@
         <v>43466</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" t="s">
-        <v>28</v>
+      <c r="C24" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>121</v>
@@ -11987,8 +13095,8 @@
         <v>43466</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" t="s">
-        <v>28</v>
+      <c r="C25" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>121</v>
@@ -12023,8 +13131,8 @@
         <v>43466</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" t="s">
-        <v>28</v>
+      <c r="C26" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>121</v>
@@ -12059,8 +13167,8 @@
         <v>43466</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" t="s">
-        <v>28</v>
+      <c r="C27" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>121</v>
@@ -12095,8 +13203,8 @@
         <v>43466</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" t="s">
-        <v>28</v>
+      <c r="C28" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>130</v>
@@ -12131,8 +13239,8 @@
         <v>43466</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" t="s">
-        <v>28</v>
+      <c r="C29" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>130</v>
@@ -12167,8 +13275,8 @@
         <v>43466</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" t="s">
-        <v>28</v>
+      <c r="C30" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>130</v>
@@ -12203,8 +13311,8 @@
         <v>43466</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" t="s">
-        <v>28</v>
+      <c r="C31" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>130</v>
@@ -12239,8 +13347,8 @@
         <v>43466</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" t="s">
-        <v>28</v>
+      <c r="C32" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>130</v>
@@ -12275,8 +13383,8 @@
         <v>43466</v>
       </c>
       <c r="B33" s="8"/>
-      <c r="C33" t="s">
-        <v>28</v>
+      <c r="C33" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>130</v>
@@ -12311,8 +13419,8 @@
         <v>43466</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" t="s">
-        <v>28</v>
+      <c r="C34" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>133</v>
@@ -12347,8 +13455,8 @@
         <v>43466</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" t="s">
-        <v>28</v>
+      <c r="C35" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>133</v>
@@ -12383,8 +13491,8 @@
         <v>43466</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" t="s">
-        <v>28</v>
+      <c r="C36" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>133</v>
@@ -12419,8 +13527,8 @@
         <v>43466</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" t="s">
-        <v>28</v>
+      <c r="C37" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>133</v>
@@ -12455,8 +13563,8 @@
         <v>43466</v>
       </c>
       <c r="B38" s="8"/>
-      <c r="C38" t="s">
-        <v>28</v>
+      <c r="C38" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>133</v>
@@ -12491,8 +13599,8 @@
         <v>43466</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" t="s">
-        <v>28</v>
+      <c r="C39" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>133</v>
@@ -12522,23 +13630,24 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
-        <v>45266</v>
-      </c>
+        <v>43466</v>
+      </c>
+      <c r="B40" s="8"/>
       <c r="C40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" t="s">
-        <v>135</v>
+        <v>28</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="10" t="s">
         <v>56</v>
       </c>
       <c r="I40" t="s">
@@ -12547,58 +13656,705 @@
       <c r="J40" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="K40" t="s">
-        <v>163</v>
+      <c r="K40" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
-        <v>45266</v>
-      </c>
+        <v>43466</v>
+      </c>
+      <c r="B41" s="8"/>
       <c r="C41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" t="s">
-        <v>136</v>
+        <v>28</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="10" t="s">
         <v>56</v>
       </c>
       <c r="I41" t="s">
         <v>158</v>
       </c>
       <c r="J41" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" t="s">
+        <v>158</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" t="s">
+        <v>158</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" t="s">
+        <v>158</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" t="s">
+        <v>158</v>
+      </c>
+      <c r="J45" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K45" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" t="s">
+        <v>158</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" t="s">
+        <v>158</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" t="s">
+        <v>158</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50" t="s">
+        <v>158</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" t="s">
+        <v>158</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>123</v>
+      </c>
+      <c r="I52" t="s">
+        <v>158</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>123</v>
+      </c>
+      <c r="I53" t="s">
+        <v>158</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="H54" t="s">
+        <v>123</v>
+      </c>
+      <c r="I54" t="s">
+        <v>158</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="O54" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="H55" t="s">
+        <v>123</v>
+      </c>
+      <c r="I55" t="s">
+        <v>158</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="H56" t="s">
+        <v>123</v>
+      </c>
+      <c r="I56" t="s">
+        <v>158</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="O56" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>123</v>
+      </c>
+      <c r="I57" t="s">
+        <v>158</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="O57" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="8">
+        <v>45266</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" t="s">
+        <v>158</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K58" t="s">
+        <v>163</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="O58" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="8">
+        <v>45266</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" t="s">
+        <v>158</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K59" t="s">
         <v>164</v>
       </c>
-      <c r="L41">
+      <c r="L59">
         <v>2</v>
       </c>
-      <c r="O41" s="10" t="s">
+      <c r="O59" s="10" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A41" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A59" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B39" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B57" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12613,7 +14369,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D17" activeCellId="1" sqref="A4:XFD4 D17"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12699,8 +14455,8 @@
         <v>43466</v>
       </c>
       <c r="B5" s="28"/>
-      <c r="C5" t="s">
-        <v>28</v>
+      <c r="C5" s="112" t="s">
+        <v>263</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
@@ -12712,13 +14468,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>43466</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>52</v>
@@ -12732,13 +14488,14 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
-        <v>45266</v>
-      </c>
+        <v>43466</v>
+      </c>
+      <c r="B7" s="28"/>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>167</v>
@@ -12747,20 +14504,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>45266</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="29">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A7" xr:uid="{00000000-0002-0000-0800-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A8" xr:uid="{A983A1F3-6636-9B4A-A8CF-E8F20C690B76}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F7" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F8" xr:uid="{4C67CBA5-1445-F644-912C-0285B9918CD1}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B6" xr:uid="{00000000-0002-0000-0800-000002000000}">
-      <formula1>IF((DATEDIF(A7,B7,"d")&gt;0),B7)</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B5" xr:uid="{6CD9E515-8E94-7E46-9AFD-1C2CAFCA089C}">
+      <formula1>IF((DATEDIF(A8,B8,"d")&gt;0),B8)</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B6:B7" xr:uid="{C9D5882F-5543-DD4C-A4AD-59B5425CDDC7}">
+      <formula1>IF((DATEDIF(A9,B9,"d")&gt;0),B9)</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -12769,23 +14546,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type" xr:uid="{00000000-0002-0000-0800-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type" xr:uid="{104052DB-6DF4-E140-A7DE-C5559E674A52}">
           <x14:formula1>
             <xm:f>CaseField!$D$4:$D$9</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D4 D6</xm:sqref>
+          <xm:sqref>D7 D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type" xr:uid="{00000000-0002-0000-0800-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type" xr:uid="{0BA7D8A2-9C66-C543-A016-9AAD2DF73446}">
           <x14:formula1>
             <xm:f>'/users/semenu/library/containers/com.microsoft.excel/data/documents/users\sivakanukollu\github\moj\ccd-data-store-api\src\aat\resources\[ccd_befta_jurisdiction4.xlsx]casefield'!#REF!</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D5</xm:sqref>
+          <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
